--- a/src/main/webapp/content/files/precisionOncologyTx/Classification_of_FDA-approved_precision_oncology_therapies.xlsx
+++ b/src/main/webapp/content/files/precisionOncologyTx/Classification_of_FDA-approved_precision_oncology_therapies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangh2/repos/oncokb-public/src/main/webapp/content/files/precisionOncologyTx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F91A94-0BA4-6046-BD78-2F374E5E7B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413E0E6B-F68C-734F-997A-DA3BA1A38EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="34400" windowHeight="26900" xr2:uid="{D3CC899A-FE92-8343-9D2C-EF5EE5721116}"/>
+    <workbookView xWindow="34400" yWindow="520" windowWidth="34400" windowHeight="26900" xr2:uid="{D3CC899A-FE92-8343-9D2C-EF5EE5721116}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="186">
   <si>
     <t>1998 – 2001*</t>
   </si>
@@ -625,6 +625,13 @@
   </si>
   <si>
     <t>First-in class = 33; Mechanistically-distinct = 7; Follow-on = 19; Resistance = 10</t>
+  </si>
+  <si>
+    <t>Precision oncology therapy: A drug that is most effective in a molecularly defined subset of patients and for which pre-treatment molecular profiling is required for optimal patient selection
+First-in-class precision oncology therapy: A precision oncology therapy targeting an alteration previously classified as not actionable
+Mechanistically-distinct precision oncology therapy: A precision oncology therapy targeting a previously actionable genomic alteration via a distinct mechanisms-of-action, or with significantly different selectivity versus older drugs
+Follow-on precision oncology therapy: A precision oncology therapy with a mechanism of action largely similar to a previously FDA-approved first-in-class drug
+Resistance precision oncology therapy: A precision oncology therapy with a mechanism of action largely similar to an FDA-approved first-in-class precision oncology drug, but with an expanded mutation profile that targets mutations that arise in the context of resistance to the first-in-class drug</t>
   </si>
 </sst>
 </file>
@@ -749,7 +756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -766,16 +773,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1091,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2443C89-2C5B-8E41-851F-81266AC48571}">
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="286" zoomScaleNormal="286" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="286" zoomScaleNormal="286" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115:E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1192,10 +1202,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1204,53 +1214,53 @@
       <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="4" t="s">
         <v>131</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="4" t="s">
         <v>132</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" ht="40" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -1474,10 +1484,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="27" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="7">
         <v>2011</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -1486,20 +1496,20 @@
       <c r="D24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="27" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="4" t="s">
         <v>140</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="7"/>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5" ht="27" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
@@ -1553,10 +1563,10 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="27" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
+      <c r="A29" s="7">
         <v>2012</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -1565,20 +1575,20 @@
       <c r="D29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="27" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="4" t="s">
         <v>142</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="7"/>
+      <c r="E30" s="9"/>
     </row>
     <row r="31" spans="1:5" ht="27" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
@@ -1751,36 +1761,36 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="40" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
+      <c r="A41" s="7">
         <v>2014</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="6" t="s">
+      <c r="D41" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="40" x14ac:dyDescent="0.2">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
       <c r="C42" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
     </row>
     <row r="43" spans="1:5" ht="27" x14ac:dyDescent="0.2">
-      <c r="A43" s="6">
+      <c r="A43" s="7">
         <v>2014</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -1789,53 +1799,53 @@
       <c r="D43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="27" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
       <c r="C44" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="9"/>
+      <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
       <c r="C45" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="9"/>
+      <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
       <c r="C46" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="9"/>
+      <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
       <c r="C47" s="2" t="s">
         <v>173</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="7"/>
+      <c r="E47" s="9"/>
     </row>
     <row r="48" spans="1:5" ht="27" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
@@ -1872,10 +1882,10 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="27" x14ac:dyDescent="0.2">
-      <c r="A50" s="6">
+      <c r="A50" s="7">
         <v>2015</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -1884,31 +1894,31 @@
       <c r="D50" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
       <c r="C51" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="9"/>
+      <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
       <c r="C52" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="7"/>
+      <c r="E52" s="9"/>
     </row>
     <row r="53" spans="1:5" ht="40" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
@@ -2268,62 +2278,62 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="27" x14ac:dyDescent="0.2">
-      <c r="A74" s="6">
+      <c r="A74" s="7">
         <v>2019</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="7" t="s">
         <v>96</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E74" s="6" t="s">
+      <c r="D74" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="27" x14ac:dyDescent="0.2">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
       <c r="C75" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
     </row>
     <row r="76" spans="1:5" ht="27" x14ac:dyDescent="0.2">
-      <c r="A76" s="6">
+      <c r="A76" s="7">
         <v>2019</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="7" t="s">
         <v>97</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D76" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E76" s="6" t="s">
+      <c r="D76" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="53" x14ac:dyDescent="0.2">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
       <c r="C77" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
     </row>
     <row r="78" spans="1:5" ht="27" x14ac:dyDescent="0.2">
-      <c r="A78" s="6">
+      <c r="A78" s="7">
         <v>2019</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="7" t="s">
         <v>98</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -2332,31 +2342,31 @@
       <c r="D78" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="E78" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
       <c r="C79" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E79" s="9"/>
+      <c r="E79" s="8"/>
     </row>
     <row r="80" spans="1:5" ht="40" x14ac:dyDescent="0.2">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
       <c r="C80" s="4" t="s">
         <v>156</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="7"/>
+      <c r="E80" s="9"/>
     </row>
     <row r="81" spans="1:5" ht="27" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
@@ -2376,30 +2386,30 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="27" x14ac:dyDescent="0.2">
-      <c r="A82" s="6">
+      <c r="A82" s="7">
         <v>2020</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="7" t="s">
         <v>101</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D82" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E82" s="6" t="s">
+      <c r="D82" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
     </row>
     <row r="84" spans="1:5" ht="40" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
@@ -2453,30 +2463,30 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="27" x14ac:dyDescent="0.2">
-      <c r="A87" s="6">
+      <c r="A87" s="7">
         <v>2020</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="7" t="s">
         <v>105</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D87" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E87" s="6" t="s">
+      <c r="D87" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="27" x14ac:dyDescent="0.2">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
       <c r="C88" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
     </row>
     <row r="89" spans="1:5" ht="53" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
@@ -2547,30 +2557,30 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="66" x14ac:dyDescent="0.2">
-      <c r="A93" s="6">
+      <c r="A93" s="7">
         <v>2020</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="7" t="s">
         <v>110</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D93" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E93" s="6" t="s">
+      <c r="D93" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="27" x14ac:dyDescent="0.2">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
+      <c r="A94" s="9"/>
+      <c r="B94" s="9"/>
       <c r="C94" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
     </row>
     <row r="95" spans="1:5" ht="27" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
@@ -2794,114 +2804,94 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
     </row>
     <row r="110" spans="1:5" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="10" t="s">
+      <c r="A110" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
     </row>
     <row r="111" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="10" t="s">
+      <c r="A111" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B111" s="10"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="10"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
     </row>
     <row r="112" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="10" t="s">
+      <c r="A112" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B112" s="10"/>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="10"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
     </row>
     <row r="113" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="10" t="s">
+      <c r="A113" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B113" s="10"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="10"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
     </row>
     <row r="114" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="10" t="s">
+      <c r="A114" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B114" s="10"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="10"/>
-    </row>
-    <row r="115" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="10" t="s">
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+    </row>
+    <row r="115" spans="1:5" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B115" s="10"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="10"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="10" t="s">
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B116" s="10"/>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="10"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="50">
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A114:E114"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="E6:E10"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
+  <mergeCells count="51">
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="A109:E109"/>
     <mergeCell ref="A78:A80"/>
     <mergeCell ref="B78:B80"/>
     <mergeCell ref="E78:E80"/>
@@ -2913,11 +2903,41 @@
     <mergeCell ref="B82:B83"/>
     <mergeCell ref="D82:D83"/>
     <mergeCell ref="E82:E83"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A117:E117"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="A115:E115"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
